--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s1_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2380.286129088445</v>
+        <v>848.952630895364</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.380000114440918</v>
+        <v>0.4550001621246338</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.72359995295781</v>
+        <v>34.84839347967298</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.59089987984588</v>
+        <v>17.54251542611351</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.40342901431629</v>
+        <v>15.64675284180439</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1902.490000001017</v>
+        <v>666</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.26</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.21636892110496</v>
+        <v>32.41539744121282</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23.61455744655506</v>
+        <v>34.01720891576281</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.957912867326328</v>
+        <v>32.48909622152298</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,10 +968,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>7</v>
@@ -996,29 +996,15 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1077,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>119.2360000000023</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1088,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>271.0130000000614</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
@@ -1099,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>227.8140000000374</v>
+        <v>164.6</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>150.5910000000154</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="7">
@@ -1121,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>83.34899999999105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>119.2360000000224</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -1143,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>271.0130000000872</v>
+        <v>164.6</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19.23600000001841</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1201,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>171.0130000000833</v>
+        <v>64.59999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.206</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3">
@@ -1259,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1270,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.624000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1281,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.278</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
@@ -1292,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>15.975</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,7 +1319,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1344,7 +1330,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1355,23 +1341,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
